--- a/data/teknologi_potentiale.xlsx
+++ b/data/teknologi_potentiale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_AD4D1D646341095ACB7000EC15D0E55E693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D68162D1-5A8C-4A2D-94B2-66AFA704C502}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_AD4D1D646341095ACB7000EC15D0E55E693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F06B174-08B7-46CB-A761-6D82C69A5988}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26985" yWindow="4140" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>model_gruppe</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>ugentlig_biogas</t>
+  </si>
+  <si>
+    <t>linespil</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +453,7 @@
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +493,11 @@
       <c r="M1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -531,8 +537,11 @@
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -572,8 +581,11 @@
       <c r="M3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -613,8 +625,11 @@
       <c r="M4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -654,8 +669,11 @@
       <c r="M5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -695,8 +713,11 @@
       <c r="M6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -736,8 +757,11 @@
       <c r="M7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -777,8 +801,11 @@
       <c r="M8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -818,8 +845,11 @@
       <c r="M9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -859,8 +889,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -900,8 +933,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -941,8 +977,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -982,8 +1021,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1021,6 +1063,9 @@
         <v>0</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>0</v>
       </c>
     </row>

--- a/data/teknologi_potentiale.xlsx
+++ b/data/teknologi_potentiale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_AD4D1D646341095ACB7000EC15D0E55E693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F06B174-08B7-46CB-A761-6D82C69A5988}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_AD4D1D646341095ACB7000EC15D0E55E693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1AD58A7-8C17-4D75-B13E-8143F15F37F9}"/>
   <bookViews>
-    <workbookView xWindow="-26985" yWindow="4140" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24270" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>model_gruppe</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>linespil</t>
+  </si>
+  <si>
+    <t>svin_gylle</t>
+  </si>
+  <si>
+    <t>kvæg_gylle</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,10 +857,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -863,7 +869,7 @@
         <v>100</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>80.7</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -887,27 +893,27 @@
         <v>100</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -919,16 +925,16 @@
         <v>100</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -939,7 +945,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -983,7 +989,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1027,45 +1033,133 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>38</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
     </row>

--- a/data/teknologi_potentiale.xlsx
+++ b/data/teknologi_potentiale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="11_AD4D1D646341095ACB7000EC15D0E55E693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1AD58A7-8C17-4D75-B13E-8143F15F37F9}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="11_AD4D1D646341095ACB7000EC15D0E55E693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17BB5668-8EF3-4CA1-BD99-106A1EF512CF}"/>
   <bookViews>
-    <workbookView xWindow="-24270" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>model_gruppe</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>linespil</t>
-  </si>
-  <si>
-    <t>svin_gylle</t>
-  </si>
-  <si>
-    <t>kvæg_gylle</t>
   </si>
 </sst>
 </file>
@@ -440,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +555,7 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -573,16 +567,16 @@
         <v>100</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -825,7 +819,7 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -837,16 +831,16 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -857,10 +851,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -869,7 +863,7 @@
         <v>100</v>
       </c>
       <c r="E10">
-        <v>80.7</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -893,27 +887,27 @@
         <v>100</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>80.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -925,16 +919,16 @@
         <v>100</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -945,7 +939,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -989,7 +983,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1033,7 +1027,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1072,94 +1066,6 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>100</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>38</v>
-      </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>38</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="I16">
-        <v>38</v>
-      </c>
-      <c r="J16">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>38</v>
-      </c>
-      <c r="L16">
-        <v>38</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
         <v>0</v>
       </c>
     </row>

--- a/data/teknologi_potentiale.xlsx
+++ b/data/teknologi_potentiale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_AD4D1D646341095ACB7000EC15D0E55E693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17BB5668-8EF3-4CA1-BD99-106A1EF512CF}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="11_AD4D1D646341095ACB7000EC15D0E55E693EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{365FD293-393D-4016-AF47-0C3E31DE2078}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
